--- a/raw-data-prep/raw_data/Distraction_Assignment_JC.xlsx
+++ b/raw-data-prep/raw_data/Distraction_Assignment_JC.xlsx
@@ -11,6 +11,9 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$48</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
@@ -363,7 +366,7 @@
   <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,6 +741,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B48"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
